--- a/RiC-O_0-2_listOfDatatypeProperties.xlsx
+++ b/RiC-O_0-2_listOfDatatypeProperties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="203">
   <si>
     <t xml:space="preserve">Ontology IRI</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lien direct vers le fichier RDF :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://xls2rdf.sparna.fr/rest/convert?url=https%3A%2F%2Fgithub.com%2Fsparna-git%2Fsparnatural-demonstrateur-an%2Fraw%2Fmain%2FRiC-O_0-2_listOfDatatypeProperties.xlsx&amp;noPostProcessings=true</t>
   </si>
   <si>
     <t xml:space="preserve">identifiant dans l’IRI</t>
@@ -763,7 +766,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -796,6 +799,14 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -806,10 +817,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -912,7 +919,7 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -974,7 +981,7 @@
       <c r="G4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4"/>
@@ -985,10 +992,12 @@
       <c r="G5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1004,48 +1013,48 @@
       <c r="F7" s="5"/>
       <c r="G7" s="0"/>
     </row>
-    <row r="8" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="9" t="s">
+    <row r="8" s="8" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" s="11" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="13" t="s">
+    </row>
+    <row r="9" s="8" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>14</v>
+      <c r="C9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1053,19 +1062,19 @@
         <f aca="false">CONCATENATE($B$2,":",B10)</f>
         <v>rico:accrual</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="C10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
         <v>18</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,19 +1082,19 @@
         <f aca="false">CONCATENATE($B$2,":",B11)</f>
         <v>rico:accrualStatus</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>21</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1093,21 +1102,21 @@
         <f aca="false">CONCATENATE($B$2,":",B12)</f>
         <v>rico:altimetricSystem</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="16" t="s">
         <v>26</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,21 +1124,21 @@
         <f aca="false">CONCATENATE($B$2,":",B13)</f>
         <v>rico:altitude</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="C13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16" t="s">
         <v>29</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1137,19 +1146,19 @@
         <f aca="false">CONCATENATE($B$2,":",B14)</f>
         <v>rico:authenticityNote</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16" t="s">
         <v>33</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1157,21 +1166,21 @@
         <f aca="false">CONCATENATE($B$2,":",B15)</f>
         <v>rico:authorizingMandate</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="F15" s="16" t="s">
         <v>38</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1179,21 +1188,21 @@
         <f aca="false">CONCATENATE($B$2,":",B16)</f>
         <v>rico:beginningDate</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="F16" s="16" t="s">
         <v>43</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1201,23 +1210,23 @@
         <f aca="false">CONCATENATE($B$2,":",B17)</f>
         <v>rico:birthDate</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="15" t="s">
+      <c r="D17" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="E17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>48</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1225,21 +1234,21 @@
         <f aca="false">CONCATENATE($B$2,":",B18)</f>
         <v>rico:calendar</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15" t="s">
+      <c r="B18" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="C18" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="F18" s="16" t="s">
         <v>52</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1247,21 +1256,21 @@
         <f aca="false">CONCATENATE($B$2,":",B19)</f>
         <v>rico:carrierExtent</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="F19" s="16" t="s">
         <v>57</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,19 +1278,19 @@
         <f aca="false">CONCATENATE($B$2,":",B20)</f>
         <v>rico:certainty</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="C20" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16" t="s">
         <v>60</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1289,19 +1298,19 @@
         <f aca="false">CONCATENATE($B$2,":",B21)</f>
         <v>rico:classification</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15" t="s">
+      <c r="B21" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="C21" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16" t="s">
         <v>63</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1309,19 +1318,19 @@
         <f aca="false">CONCATENATE($B$2,":",B22)</f>
         <v>rico:conditionsOfAccess</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="16" t="s">
+      <c r="C22" s="16" t="s">
         <v>66</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,19 +1338,19 @@
         <f aca="false">CONCATENATE($B$2,":",B23)</f>
         <v>rico:conditionsOfUse</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>69</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1349,21 +1358,21 @@
         <f aca="false">CONCATENATE($B$2,":",B24)</f>
         <v>rico:creationDate</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="15" t="s">
+      <c r="B24" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="16" t="s">
+      <c r="C24" s="16" t="s">
         <v>72</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,19 +1380,19 @@
         <f aca="false">CONCATENATE($B$2,":",B25)</f>
         <v>rico:date</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15" t="s">
+      <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="16" t="s">
-        <v>73</v>
+      <c r="C25" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1391,19 +1400,19 @@
         <f aca="false">CONCATENATE($B$2,":",B26)</f>
         <v>rico:dateQualifier</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="15" t="s">
+      <c r="B26" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="16" t="s">
+      <c r="C26" s="16" t="s">
         <v>76</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1411,21 +1420,21 @@
         <f aca="false">CONCATENATE($B$2,":",B27)</f>
         <v>rico:dateStandard</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>78</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1433,21 +1442,21 @@
         <f aca="false">CONCATENATE($B$2,":",B28)</f>
         <v>rico:deathDate</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="15" t="s">
+      <c r="B28" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15" t="s">
+      <c r="C28" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="16" t="s">
+      <c r="D28" s="16"/>
+      <c r="E28" s="16" t="s">
         <v>82</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1455,21 +1464,21 @@
         <f aca="false">CONCATENATE($B$2,":",B29)</f>
         <v>rico:deletionDate</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="16" t="s">
+      <c r="C29" s="16" t="s">
         <v>85</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1477,19 +1486,19 @@
         <f aca="false">CONCATENATE($B$2,":",B30)</f>
         <v>rico:descriptiveNote</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="15" t="s">
+      <c r="B30" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="16" t="s">
+      <c r="C30" s="16" t="s">
         <v>88</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,21 +1506,21 @@
         <f aca="false">CONCATENATE($B$2,":",B31)</f>
         <v>rico:endDate</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="15" t="s">
+      <c r="B31" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="16" t="s">
-        <v>90</v>
+      <c r="F31" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1519,21 +1528,21 @@
         <f aca="false">CONCATENATE($B$2,":",B32)</f>
         <v>rico:expressedDate</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="15" t="s">
+      <c r="B32" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15" t="s">
+      <c r="C32" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G32" s="16" t="s">
+      <c r="D32" s="16"/>
+      <c r="E32" s="16" t="s">
         <v>94</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1541,21 +1550,21 @@
         <f aca="false">CONCATENATE($B$2,":",B33)</f>
         <v>rico:geodesicSystem</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="15" t="s">
+      <c r="B33" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="15" t="s">
+      <c r="C33" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="16" t="s">
-        <v>97</v>
+      <c r="F33" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1563,19 +1572,19 @@
         <f aca="false">CONCATENATE($B$2,":",B34)</f>
         <v>rico:geographicalCoordinates</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="15" t="s">
+      <c r="B34" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15" t="s">
+      <c r="C34" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16" t="s">
         <v>101</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1583,21 +1592,21 @@
         <f aca="false">CONCATENATE($B$2,":",B35)</f>
         <v>rico:height</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="16" t="s">
+      <c r="B35" s="16" t="s">
         <v>103</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,19 +1614,19 @@
         <f aca="false">CONCATENATE($B$2,":",B36)</f>
         <v>rico:history</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15" t="s">
+      <c r="B36" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="C36" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16" t="s">
         <v>106</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1625,19 +1634,19 @@
         <f aca="false">CONCATENATE($B$2,":",B37)</f>
         <v>rico:identifier</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" s="16" t="s">
+      <c r="B37" s="16" t="s">
         <v>108</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1645,21 +1654,21 @@
         <f aca="false">CONCATENATE($B$2,":",B38)</f>
         <v>rico:instantiationExtent</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="15" t="s">
+      <c r="B38" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F38" s="15" t="s">
+      <c r="C38" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G38" s="16" t="s">
-        <v>111</v>
+      <c r="F38" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,21 +1676,21 @@
         <f aca="false">CONCATENATE($B$2,":",B39)</f>
         <v>rico:instantiationStructure</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="15" t="s">
+      <c r="B39" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15" t="s">
+      <c r="C39" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="16" t="s">
+      <c r="D39" s="16"/>
+      <c r="E39" s="16" t="s">
         <v>115</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1689,19 +1698,19 @@
         <f aca="false">CONCATENATE($B$2,":",B40)</f>
         <v>rico:integrity</v>
       </c>
-      <c r="B40" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" s="16" t="s">
+      <c r="B40" s="16" t="s">
         <v>117</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1709,21 +1718,21 @@
         <f aca="false">CONCATENATE($B$2,":",B41)</f>
         <v>rico:lastModificationDate</v>
       </c>
-      <c r="B41" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="15" t="s">
+      <c r="B41" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15" t="s">
+      <c r="C41" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="F41" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G41" s="16" t="s">
+      <c r="D41" s="16"/>
+      <c r="E41" s="16" t="s">
         <v>121</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1731,21 +1740,21 @@
         <f aca="false">CONCATENATE($B$2,":",B42)</f>
         <v>rico:latitude</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="16" t="s">
+      <c r="B42" s="16" t="s">
         <v>123</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1753,19 +1762,19 @@
         <f aca="false">CONCATENATE($B$2,":",B43)</f>
         <v>rico:location</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G43" s="16" t="s">
+      <c r="B43" s="16" t="s">
         <v>125</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1773,21 +1782,21 @@
         <f aca="false">CONCATENATE($B$2,":",B44)</f>
         <v>rico:longitude</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="16" t="s">
+      <c r="B44" s="16" t="s">
         <v>127</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1795,19 +1804,19 @@
         <f aca="false">CONCATENATE($B$2,":",B45)</f>
         <v>rico:measure</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>128</v>
+      <c r="B45" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1815,21 +1824,21 @@
         <f aca="false">CONCATENATE($B$2,":",B46)</f>
         <v>rico:modificationDate</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F46" s="15" t="s">
+      <c r="B46" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G46" s="16" t="s">
-        <v>130</v>
+      <c r="F46" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1837,19 +1846,19 @@
         <f aca="false">CONCATENATE($B$2,":",B47)</f>
         <v>rico:name</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G47" s="16" t="s">
+      <c r="B47" s="16" t="s">
         <v>132</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,21 +1866,21 @@
         <f aca="false">CONCATENATE($B$2,":",B48)</f>
         <v>rico:normalizedDateValue</v>
       </c>
-      <c r="B48" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="15" t="s">
+      <c r="B48" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15" t="s">
+      <c r="C48" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="F48" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G48" s="16" t="s">
+      <c r="D48" s="16"/>
+      <c r="E48" s="16" t="s">
         <v>136</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1879,21 +1888,21 @@
         <f aca="false">CONCATENATE($B$2,":",B49)</f>
         <v>rico:normalizedValue</v>
       </c>
-      <c r="B49" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F49" s="15" t="s">
+      <c r="B49" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="D49" s="16"/>
+      <c r="E49" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" s="16" t="s">
         <v>139</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1901,19 +1910,19 @@
         <f aca="false">CONCATENATE($B$2,":",B50)</f>
         <v>rico:physicalCharacteristics</v>
       </c>
-      <c r="B50" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C50" s="15" t="s">
+      <c r="B50" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" s="16" t="s">
+      <c r="C50" s="16" t="s">
         <v>142</v>
+      </c>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1921,19 +1930,19 @@
         <f aca="false">CONCATENATE($B$2,":",B51)</f>
         <v>rico:physicalOrLogicalExtent</v>
       </c>
-      <c r="B51" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="16" t="s">
+      <c r="B51" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="16" t="s">
         <v>144</v>
+      </c>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1941,19 +1950,19 @@
         <f aca="false">CONCATENATE($B$2,":",B52)</f>
         <v>rico:productionTechnique</v>
       </c>
-      <c r="B52" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="15" t="s">
+      <c r="B52" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G52" s="16" t="s">
+      <c r="C52" s="16" t="s">
         <v>147</v>
+      </c>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1961,21 +1970,21 @@
         <f aca="false">CONCATENATE($B$2,":",B53)</f>
         <v>rico:publicationDate</v>
       </c>
-      <c r="B53" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C53" s="15" t="s">
+      <c r="B53" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G53" s="16" t="s">
+      <c r="C53" s="16" t="s">
         <v>150</v>
+      </c>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1983,19 +1992,19 @@
         <f aca="false">CONCATENATE($B$2,":",B54)</f>
         <v>rico:qualityOfRepresentation</v>
       </c>
-      <c r="B54" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C54" s="15" t="s">
+      <c r="B54" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G54" s="16" t="s">
+      <c r="C54" s="16" t="s">
         <v>153</v>
+      </c>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2003,21 +2012,21 @@
         <f aca="false">CONCATENATE($B$2,":",B55)</f>
         <v>rico:quantity</v>
       </c>
-      <c r="B55" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F55" s="15" t="s">
+      <c r="B55" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="C55" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" s="16" t="s">
         <v>156</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2025,21 +2034,21 @@
         <f aca="false">CONCATENATE($B$2,":",B56)</f>
         <v>rico:recordResourceExtent</v>
       </c>
-      <c r="B56" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C56" s="15" t="s">
+      <c r="B56" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G56" s="16" t="s">
+      <c r="C56" s="16" t="s">
         <v>159</v>
+      </c>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2047,21 +2056,21 @@
         <f aca="false">CONCATENATE($B$2,":",B57)</f>
         <v>rico:recordResourceStructure</v>
       </c>
-      <c r="B57" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C57" s="15" t="s">
+      <c r="B57" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G57" s="16" t="s">
+      <c r="C57" s="16" t="s">
         <v>162</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2069,19 +2078,19 @@
         <f aca="false">CONCATENATE($B$2,":",B58)</f>
         <v>rico:referenceSystem</v>
       </c>
-      <c r="B58" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G58" s="16" t="s">
+      <c r="B58" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="16" t="s">
         <v>164</v>
+      </c>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2089,19 +2098,19 @@
         <f aca="false">CONCATENATE($B$2,":",B59)</f>
         <v>rico:relationState</v>
       </c>
-      <c r="B59" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C59" s="15" t="s">
+      <c r="B59" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15" t="s">
+      <c r="C59" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="G59" s="16" t="s">
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16" t="s">
         <v>168</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2109,19 +2118,19 @@
         <f aca="false">CONCATENATE($B$2,":",B60)</f>
         <v>rico:ruleFollowed</v>
       </c>
-      <c r="B60" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G60" s="16" t="s">
+      <c r="B60" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="16" t="s">
         <v>170</v>
+      </c>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2129,19 +2138,19 @@
         <f aca="false">CONCATENATE($B$2,":",B61)</f>
         <v>rico:scopeAndContent</v>
       </c>
-      <c r="B61" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C61" s="15" t="s">
+      <c r="B61" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G61" s="16" t="s">
+      <c r="C61" s="16" t="s">
         <v>173</v>
+      </c>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2149,19 +2158,19 @@
         <f aca="false">CONCATENATE($B$2,":",B62)</f>
         <v>rico:source</v>
       </c>
-      <c r="B62" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15" t="s">
+      <c r="B62" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="C62" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16" t="s">
         <v>176</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2169,19 +2178,19 @@
         <f aca="false">CONCATENATE($B$2,":",B63)</f>
         <v>rico:structure</v>
       </c>
-      <c r="B63" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>177</v>
+      <c r="B63" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2189,19 +2198,19 @@
         <f aca="false">CONCATENATE($B$2,":",B64)</f>
         <v>rico:technicalCharacteristics</v>
       </c>
-      <c r="B64" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C64" s="15" t="s">
+      <c r="B64" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15" t="s">
+      <c r="C64" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="G64" s="16" t="s">
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16" t="s">
         <v>181</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2209,19 +2218,19 @@
         <f aca="false">CONCATENATE($B$2,":",B65)</f>
         <v>rico:textualValue</v>
       </c>
-      <c r="B65" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15" t="s">
+      <c r="B65" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="G65" s="16" t="s">
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16" t="s">
         <v>184</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2229,21 +2238,21 @@
         <f aca="false">CONCATENATE($B$2,":",B66)</f>
         <v>rico:title</v>
       </c>
-      <c r="B66" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F66" s="15" t="s">
+      <c r="B66" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="G66" s="16" t="s">
+      <c r="C66" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F66" s="16" t="s">
         <v>187</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2251,19 +2260,19 @@
         <f aca="false">CONCATENATE($B$2,":",B67)</f>
         <v>rico:type</v>
       </c>
-      <c r="B67" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G67" s="16" t="s">
+      <c r="B67" s="16" t="s">
         <v>189</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2271,19 +2280,19 @@
         <f aca="false">CONCATENATE($B$2,":",B68)</f>
         <v>rico:unitOfMeasurement</v>
       </c>
-      <c r="B68" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C68" s="15" t="s">
+      <c r="B68" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G68" s="16" t="s">
+      <c r="C68" s="16" t="s">
         <v>192</v>
+      </c>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2291,21 +2300,21 @@
         <f aca="false">CONCATENATE($B$2,":",B69)</f>
         <v>rico:usedFromDate</v>
       </c>
-      <c r="B69" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C69" s="15" t="s">
+      <c r="B69" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F69" s="15" t="s">
+      <c r="C69" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="G69" s="16" t="s">
+      <c r="D69" s="16"/>
+      <c r="E69" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F69" s="16" t="s">
         <v>196</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2313,21 +2322,21 @@
         <f aca="false">CONCATENATE($B$2,":",B70)</f>
         <v>rico:usedToDate</v>
       </c>
-      <c r="B70" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C70" s="15" t="s">
+      <c r="B70" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F70" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="G70" s="16" t="s">
+      <c r="C70" s="16" t="s">
         <v>199</v>
+      </c>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,21 +2344,21 @@
         <f aca="false">CONCATENATE($B$2,":",B71)</f>
         <v>rico:width</v>
       </c>
-      <c r="B71" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G71" s="16" t="s">
+      <c r="B71" s="16" t="s">
         <v>201</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
